--- a/product_list_with_image.xlsx
+++ b/product_list_with_image.xlsx
@@ -148,9 +148,6 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -447,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,79 +467,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Product Name</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Quantity</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>onion</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Salt</t>
+          <t>onion</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spices</t>
+          <t>Salt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pepsi</t>
+          <t>Spices</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>oil</t>
+          <t>Pepsi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,70 +551,82 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>oil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pen</t>
+          <t>book</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>pen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>bag</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>pencil</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
